--- a/TestDate.xlsx
+++ b/TestDate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomda\OneDrive\Desktop\Python Supper App\Python-ETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1070D89-933D-4E81-8CA7-A339158F3DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B324D142-9299-4A04-9EA1-EA0298269D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7065" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{FB68EE2C-98C1-433F-BCC5-AE2A3A0D38CA}"/>
   </bookViews>
@@ -36,27 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
-  <si>
-    <t>1/1/2023</t>
-  </si>
-  <si>
-    <t>12/31/2024</t>
-  </si>
-  <si>
-    <t>4/5/2024</t>
-  </si>
-  <si>
-    <t>12/5/2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>5-1-2024</t>
   </si>
   <si>
-    <t>5/12/2024</t>
+    <t>Order Date</t>
   </si>
   <si>
-    <t>Order Date</t>
+    <t>6/1/2024</t>
   </si>
 </sst>
 </file>
@@ -429,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE54AC54-84E4-4E0E-895C-E166DAE8B94A}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +430,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -452,47 +440,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
